--- a/biology/Botanique/Krameriaceae/Krameriaceae.xlsx
+++ b/biology/Botanique/Krameriaceae/Krameriaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Krameriaceae regroupe des plantes dicotylédones. Elle comprend une vingtaine d'espèces du genre Krameria.
 Ce sont des arbustes ou des plantes herbacées pérennes, à feuilles alternes, des régions tempérées à tropicales, originaires d'Amérique centrale.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Krameria donné en hommage au médecin et naturaliste allemand Wilhelm Heinrich Kramer (?-1765), qui décrivit les plantes et les animaux de Basse-Autriche en 1756, un des premiers travaux à appliquer le système binomial linnéen[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Krameria donné en hommage au médecin et naturaliste allemand Wilhelm Heinrich Kramer (?-1765), qui décrivit les plantes et les animaux de Basse-Autriche en 1756, un des premiers travaux à appliquer le système binomial linnéen.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2], cette famille est placée dans l'ordre des Polygalales. 
-En classification phylogénétique APG II (2003)[3] la famille est optionnelle et ces plantes peuvent aussi être incluses dans la famille Zygophyllaceae. Les Zygophyllaceae (et les Krameriaceae) sont placés à la base des Fabidées.
-Le Angiosperm Phylogeny Website [21 janvier 2008] place cette famille dans l'ordre Zygophyllales, choix confirmé par classification phylogénétique APG III (2009)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), cette famille est placée dans l'ordre des Polygalales. 
+En classification phylogénétique APG II (2003) la famille est optionnelle et ces plantes peuvent aussi être incluses dans la famille Zygophyllaceae. Les Zygophyllaceae (et les Krameriaceae) sont placés à la base des Fabidées.
+Le Angiosperm Phylogeny Website [21 janvier 2008] place cette famille dans l'ordre Zygophyllales, choix confirmé par classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010)[5], NCBI  (4 mai 2010)[6], DELTA Angio           (4 mai 2010)[7] et ITIS      (4 mai 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010), NCBI  (4 mai 2010), DELTA Angio           (4 mai 2010) et ITIS      (4 mai 2010) :
 genre Krameria  L. ex Loefl.</t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (4 mai 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (4 mai 2010) :
 genre Krameria
 Krameria argentea
 Krameria cistoidea
